--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_005.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_005.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295026EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) SLCS injection</t>
-  </si>
-  <si>
-    <t>(295025EK2.08) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295006AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Decay heat generation and removal</t>
-  </si>
-  <si>
-    <t>(295027EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Hydrogen recombiners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295003AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Reactor cooldown</t>
-  </si>
-  <si>
-    <t>(295001AK2.02) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Nuclear boiler instrumentation</t>
-  </si>
-  <si>
-    <t>(295005AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor level control</t>
-  </si>
-  <si>
-    <t>(295024EA1.20) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Standby gas treatment/FRVS</t>
-  </si>
-  <si>
-    <t>(600000AA2.06) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Need for pressurizing control room (recirculating mode)</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(295004AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Ground isolation/fault determination</t>
-  </si>
-  <si>
-    <t>(295018AK2.02) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Plant operations</t>
-  </si>
-  <si>
-    <t>(295016AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295023AA1.10) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Alternate fuel pool makeup systems</t>
-  </si>
-  <si>
-    <t>(700000AA2.05) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of offsite circuit</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295019AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Leak isolation</t>
-  </si>
-  <si>
-    <t>(295013AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.8 to 41.10) Containment integrity</t>
-  </si>
-  <si>
-    <t>(295036EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.7 / 45.6 / 45.8) Systems for emergency depressurization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295007AA2.02) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor power </t>
-  </si>
-  <si>
-    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(295010AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Temperature monitoring</t>
-  </si>
-  <si>
-    <t>(295008AK2.10) Knowledge of the relationship between the (APE 8) HIGH REACTOR WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RHR (ability to drain)</t>
-  </si>
-  <si>
-    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(217000A3.02) Ability to monitor automatic operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Turbine startup </t>
-  </si>
-  <si>
-    <t>(205000K3.03) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Temperatures</t>
-  </si>
-  <si>
-    <t>(300000K5.15) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) High moisture content in instrument air</t>
-  </si>
-  <si>
-    <t>(211000K4.03) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Keeping sodium pentaborate in solution</t>
-  </si>
-  <si>
-    <t>(215004K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) Trip units</t>
-  </si>
-  <si>
-    <t>(209002A4.14) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Test return valve</t>
-  </si>
-  <si>
-    <t>(215003A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) SCRAM and rod block trip setpoints</t>
-  </si>
-  <si>
-    <t>(261000K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Instrument air system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(262001A2.03) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of/degraded offsite power </t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(400000K2.01) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW pumps</t>
+    <t>(295016AA2.07) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
+  </si>
+  <si>
+    <t>(295027EK2.03) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
+  </si>
+  <si>
+    <t>(295024EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295038EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Elevated vs. ground level release</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295031EA1.10) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Control rod drive hydraulic system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295021AK2.08) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Alternate decay heat removal systems</t>
+  </si>
+  <si>
+    <t>(295023AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Ventilation isolation</t>
+  </si>
+  <si>
+    <t>(700000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Over-excitation</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295037EA1.10) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Systems used for alternate boron injection </t>
+  </si>
+  <si>
+    <t>(295006AA2.05) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Whether a reactor SCRAM has occurred</t>
+  </si>
+  <si>
+    <t>(295004AK2.04) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(295026EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Emergency/normal depressurization</t>
+  </si>
+  <si>
+    <t>(295003AK1.08) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Emergency diesel generator load limits</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295025EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Main and reheat steam</t>
+  </si>
+  <si>
+    <t>(295001AA2.12) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Thermal-hydraulic instabilities</t>
+  </si>
+  <si>
+    <t>(295018AK2.03) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295010AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell temperature increase</t>
+  </si>
+  <si>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295020AA1.05) Ability to operate and/or monitor the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.7 / 45.6) RPS</t>
+  </si>
+  <si>
+    <t>(295009AA2.02) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Steam flow/feed flow mismatch</t>
+  </si>
+  <si>
+    <t>(295032EK2.05) Knowledge of the relationship between the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Temperature sensitive instrumentation</t>
+  </si>
+  <si>
+    <t>(295036EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.5 / 41.10 / 45.6) Emergency depressurization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(209002A3.02) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump start </t>
+  </si>
+  <si>
+    <t>(205000A4.06) Ability to manually operate and/or monitor the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) in the control room: (CFR: 41.7 / 45.5 to 45.8) Reactor water level</t>
+  </si>
+  <si>
+    <t>(300000K3.22) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Offgas system</t>
+  </si>
+  <si>
+    <t>(215004A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Control rod block status</t>
+  </si>
+  <si>
+    <t>(264000K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.7 / 45.7) Turbo/super charger</t>
+  </si>
+  <si>
+    <t>(217000K4.03) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Prevents pump overheating</t>
+  </si>
+  <si>
+    <t>(211000A2.05) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of SLCS tank heaters</t>
+  </si>
+  <si>
+    <t>(510000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Flood prevention</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(203000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 43.5 / 45.7 / 45.8) ADS</t>
+  </si>
+  <si>
+    <t>(223002K2.01) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF Knowledge of electrical power supplies to the following: (CFR: 41.7) Logic power supplies</t>
   </si>
   <si>
     <t>(218000A3.10) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS logic</t>
   </si>
   <si>
-    <t>(223002K3.13) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Isolation condenser (Nine Mile Point 1, Dresden)</t>
-  </si>
-  <si>
-    <t>(209001K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Testable check valve operation</t>
-  </si>
-  <si>
-    <t>(203000K4.05) Knowledge of (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of water hammer (keep fill)</t>
-  </si>
-  <si>
-    <t>(215005K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.7 / 45.7) Trip units</t>
-  </si>
-  <si>
-    <t>(510000A4.02) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Valve operations</t>
-  </si>
-  <si>
-    <t>(262002A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.5 / 45.5) Motor generator outputs</t>
-  </si>
-  <si>
-    <t>(259002K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor water level</t>
-  </si>
-  <si>
-    <t>(263000A2.01) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Grounds/faults</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (291006K1.16) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Effects of scaling on heat exchanger operation</t>
-  </si>
-  <si>
-    <t>(239002A4.01) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) SRVs</t>
-  </si>
-  <si>
-    <t>(217000A3.01) Ability to monitor automatic operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(205000K3.01) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(300000K5.13) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) Low instrument air pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(216000A2.01) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Detector malfunctions </t>
-  </si>
-  <si>
-    <t>(223001) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(290001K2.02) (SF5 SC) SECONDARY CONTAINMENT Knowledge of electrical power supplies to the following: (CFR: 41.7) HVAC isolation dampers</t>
-  </si>
-  <si>
-    <t>(201003A2.01) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Stuck rod</t>
-  </si>
-  <si>
-    <t>(215001K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 TIP) TRAVERSING IN CORE PROBE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Local power range monitoring system</t>
-  </si>
-  <si>
-    <t>(288000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 PVS) PLANT VENTILATION SYSTEMS : (CFR: 41.7 / 45.4) Airborne contamination control</t>
-  </si>
-  <si>
-    <t>(202002K4.07) Knowledge of (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Minimum and maximum pump speed setpoints</t>
-  </si>
-  <si>
-    <t>(202001K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1, SF4 RS) RECIRCULATION SYSTEM: (CFR: 41.7 / 45.7) Reactor protection system</t>
-  </si>
-  <si>
-    <t>(286000A4.04) Ability to manually operate and/or monitor the (SF8 FPS) FIRE PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Fire main pressure</t>
-  </si>
-  <si>
-    <t>(271000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.5 / 45.3 / 45.5) Recombiner catalyst temperature</t>
-  </si>
-  <si>
-    <t>(272000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main steam system</t>
-  </si>
-  <si>
-    <t>(G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(400000A4.01) Ability to manually operate and/or monitor the (SF8 CCS) COMPONENT COOLING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) CCW indications and control</t>
+  </si>
+  <si>
+    <t>(262001K3.04) Knowledge of the effect that a loss or malfunction of the (SF6 AC) AC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Uninterruptible power supply system</t>
+  </si>
+  <si>
+    <t>(262002A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(212000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(215003K4.10) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatically bypassing IRM rod block signals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215005A2.08) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty or erratic operation of detectors/systems </t>
+  </si>
+  <si>
+    <t>(239002K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.5 / 45.3) Vacuum breaker operation</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (291004K1.12) PUMPS (CFR: 41.3) (CENTRIFUGAL) \u201cRunout\u201d of a centrifugal pump (definition, indications, causes, effects, and corrective measures)</t>
+  </si>
+  <si>
+    <t>(209001K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment</t>
+  </si>
+  <si>
+    <t>(263000K2.04) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Inverters</t>
+  </si>
+  <si>
+    <t>(209002A3.01) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(205000A4.12) Ability to manually operate and/or monitor the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) in the control room: (CFR: 41.7 / 45.5 to 45.8) Recirculation loop temperatures</t>
+  </si>
+  <si>
+    <t>(300000K3.12) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Feedwater system</t>
+  </si>
+  <si>
+    <t>(215004A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) SRMS count rate and period</t>
+  </si>
+  <si>
+    <t>(272000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Isolation condenser (Nine Mile Point 1, Dresden)</t>
+  </si>
+  <si>
+    <t>(201003A2.07) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Abnormal CRD drive water flow</t>
+  </si>
+  <si>
+    <t>(230000A3.01) Ability to monitor automatic operation of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(239001A4.01) Ability to manually operate and/or monitor the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) MSIVs</t>
+  </si>
+  <si>
+    <t>(286000K3.09) Knowledge of the effect that a loss or malfunction of the (SF8 FPS) FIRE PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) AC electrical distribution systems</t>
+  </si>
+  <si>
+    <t>(215001A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 TIP) TRAVERSING IN CORE PROBE including: (CFR: 41.5 / 45.5) Detector output</t>
+  </si>
+  <si>
+    <t>(256000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 CDS) CONDENSATE SYSTEM: (CFR: 41.7 / 45.7) Extraction steam system</t>
+  </si>
+  <si>
+    <t>(510001K4.05) Knowledge of (SF8 CWS*) CIRCULATING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor power reduction</t>
+  </si>
+  <si>
+    <t>(202002A2.09) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation flow instrumentation</t>
+  </si>
+  <si>
+    <t>(245000K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS: (CFR: 41.5 / 45.3) Generator operations and limitations (reference potential)</t>
+  </si>
+  <si>
+    <t>(271000) (SF9 OG) OFFGAS SYSTEM (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
   </si>
   <si>
     <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
-  </si>
-  <si>
-    <t>(292001K1.05) NEUTRONS (CFR: 41.1) Identify characteristics of good moderators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(292003K1.04) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define delayed neutron fraction and effective delayed </t>
-  </si>
-  <si>
-    <t>(293007K1.08) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) List functions of the main condenser in a power plant</t>
-  </si>
-  <si>
-    <t>(293010K1.04) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State how the possibility of brittle fracture is minimized by operating limitations</t>
-  </si>
-  <si>
-    <t>(293006K1.08) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Discuss pump head</t>
-  </si>
-  <si>
-    <t>(295038EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295027EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295030EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) </t>
-  </si>
-  <si>
-    <t>(295022AA2.04) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(500000EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen monitoring availability</t>
-  </si>
-  <si>
-    <t>(211000A2.09) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Automatic or manual initiation failure</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(209002A2.05) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(261000A2.10) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low reactor water level</t>
-  </si>
-  <si>
-    <t>(259001) (SF2 FWS) FEEDWATER SYSTEM (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(268000A2.01) Ability to (a) predict the impacts of the following on the (SF9 RW) RADWASTE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) System rupture </t>
-  </si>
-  <si>
-    <t>(245000) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+    <t>(G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(292008K1.29) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (NORMAL REACTOR SHUTDOWN) Define decay heat</t>
+  </si>
+  <si>
+    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
+  </si>
+  <si>
+    <t>(292006K1.05) FISSION PRODUCT POISONS (CFR: 41.1) Describe the following processes and state their effect on reactor operations: --Equilibrium xenon</t>
+  </si>
+  <si>
+    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
+  </si>
+  <si>
+    <t>(293008K1.24) THERMAL HYDRAULICS (CFR: 41.14) (VIODS AND VOID FRACTION) Draw the temperature profile from the centerline of a fuel pellet to the centerline of the channel</t>
+  </si>
+  <si>
+    <t>(293003K1.23) STEAM (CFR: 41.14) Use saturated and superheated steam tables</t>
+  </si>
+  <si>
+    <t>(295016AA2.04) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295024EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295005AA2.03) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Turbine valve position</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295019AK2.05) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Main and reheat steam system</t>
+  </si>
+  <si>
+    <t>(295033EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Source of high area radiation</t>
+  </si>
+  <si>
+    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295008AA2.02) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Steam flow/feedflow mismatch</t>
+  </si>
+  <si>
+    <t>(264000A2.12) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(211000A2.04) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate SLCS system flow</t>
+  </si>
+  <si>
+    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(259002A2.03) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of reactor water level input</t>
+  </si>
+  <si>
+    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(241000A2.16) Ability to (a) predict the impacts of the following on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of steam pressure signal</t>
+  </si>
+  <si>
+    <t>(204000) (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM  (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
+  </si>
+  <si>
+    <t>(G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>K1</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
     <t>K5</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
     <t>295038</t>
   </si>
   <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
     <t>295026</t>
   </si>
   <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
     <t>295025</t>
   </si>
   <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
     <t>295001</t>
   </si>
   <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
     <t>295018</t>
   </si>
   <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295019</t>
+    <t>295010</t>
   </si>
   <si>
     <t>295013</t>
   </si>
   <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
     <t>295036</t>
   </si>
   <si>
-    <t>295007</t>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>295033</t>
   </si>
   <si>
     <t>295034</t>
   </si>
   <si>
-    <t>295010</t>
-  </si>
-  <si>
     <t>295008</t>
   </si>
   <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
     <t>202001</t>
   </si>
   <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>245000</t>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>204000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1446,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,7 +1494,7 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D32" t="s">
         <v>113</v>
@@ -1511,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D33" t="s">
         <v>114</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1599,7 +1599,7 @@
         <v>3.6</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,7 +1970,7 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
         <v>113</v>
@@ -1987,7 +1987,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D61" t="s">
         <v>114</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D63" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
